--- a/testdata/OpenCart_TestData.xlsx
+++ b/testdata/OpenCart_TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh\eclipse-workspace2\Opencart-Cucumber\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh\eclipse-workspace\Opencart-CucumberFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EDC219-797A-426A-A2A7-1B3A0A805E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A3E838-7E34-4724-B046-91A0FAD8198F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C25B3EBA-FC6D-4CA0-B815-305889E32E4E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -48,12 +48,6 @@
     <t>abc@xyz</t>
   </si>
   <si>
-    <t>Mahesh@gmail.com</t>
-  </si>
-  <si>
-    <t>Jejurkar@gmail.com</t>
-  </si>
-  <si>
     <t>Mahesh</t>
   </si>
   <si>
@@ -67,6 +61,18 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>jejurkar.mahesh@gmail.com</t>
+  </si>
+  <si>
+    <t>Mahesh@1990</t>
+  </si>
+  <si>
+    <t>mahesh@gmail.com</t>
+  </si>
+  <si>
+    <t>jejurkar@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -469,12 +475,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -486,40 +493,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -530,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
